--- a/assets/public/Chapter_6_Building_A_Model/documents/resources/Question_6.08.xlsm 2018-09-19/Sample Model Question Initial.xlsx
+++ b/assets/public/Chapter_6_Building_A_Model/documents/resources/Question_6.08.xlsm 2018-09-19/Sample Model Question Initial.xlsx
@@ -5,16 +5,16 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prashant.COMPRO\Dropbox\HBP - Spreadsheet Modeling\Chapter_6_Building_A_Model\documents\resources\Question_6.8.xlsm 2018-09-12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kartik.COMPRO\Dropbox\HBP - Spreadsheet Modeling\Chapter_6_Building_A_Model\documents\resources\Question_6.08.xlsm 2018-09-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9000"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="24000" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="data table " sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -111,13 +111,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -313,10 +314,10 @@
     <xf numFmtId="44" fontId="2" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="2" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="46">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -715,9 +716,7 @@
   </sheetPr>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1048,37 +1047,37 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="26">
+      <c r="B16" s="29">
         <v>40909</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="29">
         <v>41455</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="29">
         <v>41820</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="29">
         <v>42185</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F16" s="29">
         <v>42551</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="29">
         <v>42916</v>
       </c>
-      <c r="H16" s="26">
+      <c r="H16" s="29">
         <v>43281</v>
       </c>
-      <c r="I16" s="26">
+      <c r="I16" s="29">
         <v>43646</v>
       </c>
-      <c r="J16" s="26">
+      <c r="J16" s="29">
         <v>44012</v>
       </c>
-      <c r="K16" s="26">
+      <c r="K16" s="29">
         <v>44377</v>
       </c>
-      <c r="L16" s="26">
+      <c r="L16" s="29">
         <v>44742</v>
       </c>
     </row>
@@ -1087,23 +1086,23 @@
         <v>20</v>
       </c>
       <c r="B17" s="19"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="29"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="28"/>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
@@ -1118,7 +1117,7 @@
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="27"/>
+      <c r="B19" s="26"/>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
@@ -1134,7 +1133,7 @@
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="27"/>
+      <c r="B20" s="26"/>
       <c r="C20" s="21"/>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
@@ -1150,7 +1149,7 @@
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="27"/>
+      <c r="B21" s="26"/>
       <c r="C21" s="22"/>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
@@ -1166,7 +1165,7 @@
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="27"/>
+      <c r="B22" s="26"/>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
@@ -1182,7 +1181,7 @@
       <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="27"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="24"/>
       <c r="D23" s="24"/>
       <c r="E23" s="24"/>
@@ -1198,7 +1197,7 @@
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="27"/>
+      <c r="B24" s="26"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>

--- a/assets/public/Chapter_6_Building_A_Model/documents/resources/Question_6.08.xlsm 2018-09-19/Sample Model Question Initial.xlsx
+++ b/assets/public/Chapter_6_Building_A_Model/documents/resources/Question_6.08.xlsm 2018-09-19/Sample Model Question Initial.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kartik.COMPRO\Dropbox\HBP - Spreadsheet Modeling\Chapter_6_Building_A_Model\documents\resources\Question_6.08.xlsm 2018-09-19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prashant.COMPRO\Dropbox\HBP - Spreadsheet Modeling\Chapter_6_Building_A_Model\documents\resources\Question_6.08.xlsm 2018-09-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -53,9 +53,6 @@
     <t>NPV of profits</t>
   </si>
   <si>
-    <t>Annual Capacity</t>
-  </si>
-  <si>
     <t>Plant fixed cost</t>
   </si>
   <si>
@@ -105,6 +102,9 @@
   </si>
   <si>
     <t>Year 1 variable cost of production</t>
+  </si>
+  <si>
+    <t>Annual capacity</t>
   </si>
 </sst>
 </file>
@@ -118,7 +118,7 @@
     <numFmt numFmtId="166" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="169" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -285,39 +285,80 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="2" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="5" borderId="2" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="2" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="46">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -716,12 +757,14 @@
   </sheetPr>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="22" customWidth="1"/>
     <col min="3" max="3" width="43.7109375" style="1" customWidth="1"/>
     <col min="4" max="12" width="11.5703125" style="1" customWidth="1"/>
     <col min="13" max="13" width="9.85546875" style="1" customWidth="1"/>
@@ -730,19 +773,19 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="11"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1"/>
@@ -750,21 +793,21 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="12"/>
-      <c r="C2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
+      <c r="C2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2"/>
@@ -772,19 +815,19 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
+        <v>26</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3"/>
@@ -792,19 +835,19 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4"/>
@@ -814,19 +857,19 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5"/>
@@ -836,19 +879,19 @@
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6"/>
@@ -856,19 +899,19 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7"/>
@@ -878,17 +921,17 @@
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8"/>
@@ -896,19 +939,19 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9"/>
@@ -918,17 +961,17 @@
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10"/>
@@ -936,19 +979,19 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
+        <v>18</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11"/>
@@ -956,19 +999,19 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="12"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12"/>
@@ -978,17 +1021,17 @@
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
       <c r="M13"/>
       <c r="N13"/>
       <c r="O13"/>
@@ -998,232 +1041,232 @@
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
       <c r="M14"/>
       <c r="N14"/>
       <c r="O14"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="25"/>
-      <c r="C15" s="25">
+      <c r="B15" s="18"/>
+      <c r="C15" s="18">
         <v>1</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="18">
         <v>2</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="18">
         <v>3</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="18">
         <v>4</v>
       </c>
-      <c r="G15" s="25">
+      <c r="G15" s="18">
         <v>5</v>
       </c>
-      <c r="H15" s="25">
+      <c r="H15" s="18">
         <v>6</v>
       </c>
-      <c r="I15" s="25">
+      <c r="I15" s="18">
         <v>7</v>
       </c>
-      <c r="J15" s="25">
+      <c r="J15" s="18">
         <v>8</v>
       </c>
-      <c r="K15" s="25">
+      <c r="K15" s="18">
         <v>9</v>
       </c>
-      <c r="L15" s="25">
+      <c r="L15" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="29">
+      <c r="B16" s="19">
         <v>40909</v>
       </c>
-      <c r="C16" s="29">
+      <c r="C16" s="19">
         <v>41455</v>
       </c>
-      <c r="D16" s="29">
+      <c r="D16" s="19">
         <v>41820</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="19">
         <v>42185</v>
       </c>
-      <c r="F16" s="29">
+      <c r="F16" s="19">
         <v>42551</v>
       </c>
-      <c r="G16" s="29">
+      <c r="G16" s="19">
         <v>42916</v>
       </c>
-      <c r="H16" s="29">
+      <c r="H16" s="19">
         <v>43281</v>
       </c>
-      <c r="I16" s="29">
+      <c r="I16" s="19">
         <v>43646</v>
       </c>
-      <c r="J16" s="29">
+      <c r="J16" s="19">
         <v>44012</v>
       </c>
-      <c r="K16" s="29">
+      <c r="K16" s="19">
         <v>44377</v>
       </c>
-      <c r="L16" s="29">
+      <c r="L16" s="19">
         <v>44742</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
+        <v>19</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
+        <v>12</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
+        <v>10</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
+        <v>11</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
+        <v>21</v>
+      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="20"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -1231,7 +1274,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
+      <c r="A28" s="30"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>

--- a/assets/public/Chapter_6_Building_A_Model/documents/resources/Question_6.08.xlsm 2018-09-19/Sample Model Question Initial.xlsx
+++ b/assets/public/Chapter_6_Building_A_Model/documents/resources/Question_6.08.xlsm 2018-09-19/Sample Model Question Initial.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prashant.COMPRO\Dropbox\HBP - Spreadsheet Modeling\Chapter_6_Building_A_Model\documents\resources\Question_6.08.xlsm 2018-09-19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kartik.COMPRO\Dropbox\HBP - Spreadsheet Modeling\Chapter_6_Building_A_Model\documents\resources\Question_6.08.xlsm 2018-09-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="24000" windowHeight="9000"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="24000" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="data table " sheetId="4" r:id="rId1"/>
@@ -285,11 +285,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -408,19 +406,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="45" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <condense val="0"/>
@@ -755,372 +741,315 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" style="1" customWidth="1"/>
-    <col min="4" max="12" width="11.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="43.7109375" customWidth="1"/>
+    <col min="4" max="12" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1"/>
-      <c r="P1"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B1" s="9"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3"/>
-      <c r="P3"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B3" s="8"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4"/>
-      <c r="P4"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B4" s="11"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5"/>
-      <c r="P5"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6"/>
-      <c r="P6"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7"/>
-      <c r="P7"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="13"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8"/>
-      <c r="P8"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="14"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9"/>
-      <c r="P9"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="14"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10"/>
-      <c r="P10"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="15"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11"/>
-      <c r="P11"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="14"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12"/>
-      <c r="P12"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="10"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13"/>
-      <c r="N13"/>
-      <c r="O13"/>
-      <c r="P13"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="14"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14"/>
-      <c r="N14"/>
-      <c r="O14"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="18"/>
-      <c r="C15" s="18">
+      <c r="B14" s="14"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16">
         <v>1</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="16">
         <v>2</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="16">
         <v>3</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="16">
         <v>4</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="16">
         <v>5</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="16">
         <v>6</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="16">
         <v>7</v>
       </c>
-      <c r="J15" s="18">
+      <c r="J15" s="16">
         <v>8</v>
       </c>
-      <c r="K15" s="18">
+      <c r="K15" s="16">
         <v>9</v>
       </c>
-      <c r="L15" s="18">
+      <c r="L15" s="16">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="19">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="17">
         <v>40909</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="17">
         <v>41455</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="17">
         <v>41820</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="17">
         <v>42185</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="17">
         <v>42551</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="17">
         <v>42916</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="17">
         <v>43281</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="17">
         <v>43646</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="17">
         <v>44012</v>
       </c>
-      <c r="K16" s="19">
+      <c r="K16" s="17">
         <v>44377</v>
       </c>
-      <c r="L16" s="19">
+      <c r="L16" s="17">
         <v>44742</v>
       </c>
     </row>
@@ -1128,173 +1057,191 @@
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B27" s="20"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="Q1:T13">
-    <cfRule type="top10" dxfId="2" priority="14" rank="1"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G2:G12">
     <cfRule type="top10" dxfId="1" priority="2" rank="1"/>
     <cfRule type="top10" dxfId="0" priority="4" rank="1"/>

--- a/assets/public/Chapter_6_Building_A_Model/documents/resources/Question_6.08.xlsm 2018-09-19/Sample Model Question Initial.xlsx
+++ b/assets/public/Chapter_6_Building_A_Model/documents/resources/Question_6.08.xlsm 2018-09-19/Sample Model Question Initial.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kartik.COMPRO\Dropbox\HBP - Spreadsheet Modeling\Chapter_6_Building_A_Model\documents\resources\Question_6.08.xlsm 2018-09-19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prashant.COMPRO\Dropbox\HBP - Spreadsheet Modeling\Chapter_6_Building_A_Model\documents\resources\Question_6.08.xlsm 2018-09-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="data table " sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Annual unit cost rate of increase</t>
   </si>
@@ -68,16 +68,7 @@
     <t>Steady/beginning</t>
   </si>
   <si>
-    <t>per unit of annual capacity</t>
-  </si>
-  <si>
     <t>Year 1 selling price</t>
-  </si>
-  <si>
-    <t>Demand if product is given away</t>
-  </si>
-  <si>
-    <t>Reduction in demand for each $1 price increase</t>
   </si>
   <si>
     <t>Annual price increase</t>
@@ -743,14 +734,14 @@
   </sheetPr>
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" customWidth="1"/>
-    <col min="4" max="12" width="11.5703125" customWidth="1"/>
+    <col min="2" max="12" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -758,7 +749,6 @@
         <v>9</v>
       </c>
       <c r="B1" s="9"/>
-      <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="3"/>
@@ -771,12 +761,9 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B2" s="10"/>
-      <c r="C2" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="6"/>
@@ -789,10 +776,9 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B3" s="8"/>
-      <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="6"/>
@@ -805,10 +791,9 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="11"/>
-      <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="6"/>
@@ -824,9 +809,6 @@
         <v>3</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="6"/>
@@ -842,9 +824,6 @@
         <v>4</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="6"/>
@@ -857,10 +836,9 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B7" s="13"/>
-      <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="6"/>
@@ -876,7 +854,6 @@
         <v>1</v>
       </c>
       <c r="B8" s="14"/>
-      <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="6"/>
@@ -892,7 +869,6 @@
         <v>13</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="6"/>
@@ -908,7 +884,6 @@
         <v>2</v>
       </c>
       <c r="B10" s="15"/>
-      <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="6"/>
@@ -921,10 +896,9 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B11" s="14"/>
-      <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="6"/>
@@ -937,10 +911,9 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" s="10"/>
-      <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="6"/>
@@ -956,7 +929,6 @@
         <v>0</v>
       </c>
       <c r="B13" s="14"/>
-      <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="3"/>
@@ -972,7 +944,6 @@
         <v>5</v>
       </c>
       <c r="B14" s="14"/>
-      <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="7"/>
       <c r="F14" s="3"/>
@@ -1055,7 +1026,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="21"/>
@@ -1119,7 +1090,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B21" s="19"/>
       <c r="C21" s="25"/>
@@ -1135,7 +1106,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B22" s="19"/>
       <c r="C22" s="26"/>
@@ -1183,7 +1154,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B25" s="18"/>
       <c r="C25" s="27"/>
